--- a/Coarse Design/Vista do Aluno.xlsx
+++ b/Coarse Design/Vista do Aluno.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="9570" yWindow="0" windowWidth="10965" windowHeight="8010"/>
@@ -58,9 +58,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -81,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -90,18 +98,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -109,23 +130,118 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -134,22 +250,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +311,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -167,7 +321,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,9 +359,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,143 +605,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M11"/>
+  <dimension ref="C2:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="9" width="16.28515625" customWidth="1"/>
-    <col min="11" max="13" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="K3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="K5" s="3" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="K6" s="3" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -596,12 +755,12 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
